--- a/data_excel/742.xlsx
+++ b/data_excel/742.xlsx
@@ -114,9 +114,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>714</t>
   </si>
   <si>
@@ -131,6 +128,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,12 +242,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -552,7 +554,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -656,13 +658,13 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -721,16 +723,16 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
